--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E6BC0-7B1E-4C9A-AF4F-7987CE303D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F269902-2304-4336-A516-87FF403E2911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2425CF39-3C64-46B4-9F43-E3EFFCB447EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1DE004A-7FCA-407D-B22E-552F91D59617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B787D0B3-141D-4901-8416-8B2F43882E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE771C73-BADF-4D24-B931-87C230A35C63}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F269902-2304-4336-A516-87FF403E2911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1810F7-9EFF-4E7A-9207-CE93690E3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1DE004A-7FCA-407D-B22E-552F91D59617}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{37EBAA95-DF6B-400C-ACEE-2BD9026C886F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE771C73-BADF-4D24-B931-87C230A35C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0FB67-C83C-44CD-9326-ADE82FAB00D1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1810F7-9EFF-4E7A-9207-CE93690E3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F133AF-B8C3-44D7-BE42-E435F440E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{37EBAA95-DF6B-400C-ACEE-2BD9026C886F}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{D7C9E4F5-3498-49DB-A532-D677A33999D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0FB67-C83C-44CD-9326-ADE82FAB00D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B40B0B-3A9F-4B85-9C74-9A9873AFED65}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
